--- a/analisedossortcodes.xlsx
+++ b/analisedossortcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E522D5AD-856D-4713-BEB1-68A999978F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79083506-3BC5-41DC-A852-EB5A09D6216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{150E8333-B6A4-42FE-9B71-D3FA73479794}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Vetor1</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>Bucket Interações</t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +107,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -118,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -136,6 +146,112 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -146,13 +262,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
@@ -468,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCCFD6-E8EB-4A34-A698-D49C9484FF2A}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -480,10 +611,13 @@
     <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="18.5703125" style="1"/>
+    <col min="5" max="5" width="18.5703125" style="1"/>
+    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="18.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -493,173 +627,212 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>78</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="4">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>19</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>19</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>78</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="11">
         <v>190</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>154</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10">
         <v>19</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="11">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>22</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="9">
         <v>129</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10">
         <v>110</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="11">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <v>78</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="11">
         <v>190</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="9">
         <v>176</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>20</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="11">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>198.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="9">
         <v>19</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="11">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="12">
         <v>58</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="13">
         <v>39</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="14">
         <v>113</v>
+      </c>
+      <c r="F13" s="5">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
